--- a/All_USER_DATAFILE.xlsx
+++ b/All_USER_DATAFILE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13474,6 +13474,6184 @@
       <c r="AB187" t="inlineStr"/>
       <c r="AC187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>14768510</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2023-02-20 19:49:24</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>18155549</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>14768510</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2023-02-20 19:49:24</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>18155550</v>
+      </c>
+      <c r="J189" t="n">
+        <v>500</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>9</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>14768510</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2023-02-20 19:49:24</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>18155551</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>4</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>14768510</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2023-02-20 19:49:24</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>18155552</v>
+      </c>
+      <c r="J191" t="n">
+        <v>500</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>14753740</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2023-02-20 17:34:49</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>18136005</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>14753740</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2023-02-20 17:34:49</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>18136006</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>4</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>14753740</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2023-02-20 17:34:49</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>18136007</v>
+      </c>
+      <c r="J194" t="n">
+        <v>500</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>7</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>14753740</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2023-02-20 17:34:49</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>18136008</v>
+      </c>
+      <c r="J195" t="n">
+        <v>500</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>14768504</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2023-02-19 19:48:21</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>18155540</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>14768504</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2023-02-19 19:48:21</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>18155541</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>14768504</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2023-02-19 19:48:21</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>18155542</v>
+      </c>
+      <c r="J198" t="n">
+        <v>500</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>14751403</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2023-02-19 12:41:42</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>18132815</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>14751403</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2023-02-19 12:41:42</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>18132816</v>
+      </c>
+      <c r="J200" t="n">
+        <v>500</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>14751403</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2023-02-19 12:41:42</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>18132817</v>
+      </c>
+      <c r="J201" t="n">
+        <v>500</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>14768501</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2023-02-18 19:47:41</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>18155536</v>
+      </c>
+      <c r="J202" t="n">
+        <v>500</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>14768501</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2023-02-18 19:47:41</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>18155537</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>14751398</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2023-02-18 12:39:42</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>18132809</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>14751398</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2023-02-18 12:39:42</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>18132810</v>
+      </c>
+      <c r="J205" t="n">
+        <v>500</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>14768499</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2023-02-17 19:46:48</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>18155533</v>
+      </c>
+      <c r="J206" t="n">
+        <v>500</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>14768499</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2023-02-17 19:46:48</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>18155534</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>14751400</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2023-02-17 12:40:59</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>18132812</v>
+      </c>
+      <c r="J208" t="n">
+        <v>500</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>14751396</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2023-02-17 12:38:29</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>18132807</v>
+      </c>
+      <c r="J209" t="n">
+        <v>500</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>14768494</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2023-02-15 19:45:58</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>18155527</v>
+      </c>
+      <c r="J210" t="n">
+        <v>500</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>14768494</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2023-02-15 19:45:58</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>18155528</v>
+      </c>
+      <c r="J211" t="n">
+        <v>500</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>14744691</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:07:52</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>18122830</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>14744691</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:07:52</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>18122831</v>
+      </c>
+      <c r="J213" t="n">
+        <v>500</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>14744691</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:07:52</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>18122832</v>
+      </c>
+      <c r="J214" t="n">
+        <v>500</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>14768488</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2023-02-14 19:45:17</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>18155520</v>
+      </c>
+      <c r="J215" t="n">
+        <v>500</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>14768488</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2023-02-14 19:45:17</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>18155521</v>
+      </c>
+      <c r="J216" t="n">
+        <v>500</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>14702020</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2023-02-14 11:10:07</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>18078339</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>14702020</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2023-02-14 11:10:07</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>18078340</v>
+      </c>
+      <c r="J218" t="n">
+        <v>500</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>5</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>14702019</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2023-02-14 11:09:05</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>18078337</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>14702019</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2023-02-14 11:09:05</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>18078338</v>
+      </c>
+      <c r="J220" t="n">
+        <v>500</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>14768485</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:44:33</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>18155516</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>14768485</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:44:33</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>18155517</v>
+      </c>
+      <c r="J222" t="n">
+        <v>500</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>14702023</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2023-02-13 11:14:14</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>18078345</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>14702023</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2023-02-13 11:14:14</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>18078346</v>
+      </c>
+      <c r="J224" t="n">
+        <v>500</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>5</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>14702023</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2023-02-13 11:14:14</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>18078347</v>
+      </c>
+      <c r="J225" t="n">
+        <v>500</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>14768481</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2023-02-12 19:43:51</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>18155511</v>
+      </c>
+      <c r="J226" t="n">
+        <v>500</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>6</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>14768481</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2023-02-12 19:43:51</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>18155512</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>3</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>14702021</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2023-02-12 11:11:43</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>18078341</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>14702021</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2023-02-12 11:11:43</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>18078342</v>
+      </c>
+      <c r="J229" t="n">
+        <v>500</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>3</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>14702021</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2023-02-12 11:11:43</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SET SALE</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>18078343</v>
+      </c>
+      <c r="J230" t="n">
+        <v>500</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>14768479</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2023-02-11 19:43:10</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>18155508</v>
+      </c>
+      <c r="J231" t="n">
+        <v>500</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>14768479</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2023-02-11 19:43:10</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>18155509</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>14692782</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2023-02-11 11:11:10</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>18068192</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>14692782</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2023-02-11 11:11:10</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>18068193</v>
+      </c>
+      <c r="J234" t="n">
+        <v>500</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>4</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>14768464</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2023-02-09 19:40:29</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>18155489</v>
+      </c>
+      <c r="J235" t="n">
+        <v>500</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+      <c r="AB235" t="inlineStr"/>
+      <c r="AC235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>14768464</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2023-02-09 19:40:29</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>18155490</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+      <c r="AB236" t="inlineStr"/>
+      <c r="AC236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>14692779</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023-02-09 11:07:30</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>18068187</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>14692779</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2023-02-09 11:07:30</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>18068188</v>
+      </c>
+      <c r="J238" t="n">
+        <v>500</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+      <c r="AB238" t="inlineStr"/>
+      <c r="AC238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>14692779</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2023-02-09 11:07:30</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>18068189</v>
+      </c>
+      <c r="J239" t="n">
+        <v>500</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+      <c r="AB239" t="inlineStr"/>
+      <c r="AC239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>14768462</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2023-02-08 19:39:34</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>18155485</v>
+      </c>
+      <c r="J240" t="n">
+        <v>500</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>4</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr"/>
+      <c r="Z240" t="inlineStr"/>
+      <c r="AA240" t="inlineStr"/>
+      <c r="AB240" t="inlineStr"/>
+      <c r="AC240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>14768462</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2023-02-08 19:39:34</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>18155486</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr"/>
+      <c r="AA241" t="inlineStr"/>
+      <c r="AB241" t="inlineStr"/>
+      <c r="AC241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>14768462</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2023-02-08 19:39:34</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>18155487</v>
+      </c>
+      <c r="J242" t="n">
+        <v>500</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
+      <c r="Z242" t="inlineStr"/>
+      <c r="AA242" t="inlineStr"/>
+      <c r="AB242" t="inlineStr"/>
+      <c r="AC242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>14692774</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2023-02-08 11:06:15</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>18068181</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr"/>
+      <c r="AA243" t="inlineStr"/>
+      <c r="AB243" t="inlineStr"/>
+      <c r="AC243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>14692774</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2023-02-08 11:06:15</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>18068182</v>
+      </c>
+      <c r="J244" t="n">
+        <v>500</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr"/>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr"/>
+      <c r="AB244" t="inlineStr"/>
+      <c r="AC244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>14768454</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2023-02-07 19:39:01</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>18155477</v>
+      </c>
+      <c r="J245" t="n">
+        <v>500</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+      <c r="AB245" t="inlineStr"/>
+      <c r="AC245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>14692771</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2023-02-07 11:04:03</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>18068176</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>14692771</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2023-02-07 11:04:03</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>18068177</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>14692771</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2023-02-07 11:04:03</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>18068178</v>
+      </c>
+      <c r="J248" t="n">
+        <v>500</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>14768449</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023-02-06 19:37:55</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>18155470</v>
+      </c>
+      <c r="J249" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>14768449</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2023-02-06 19:37:55</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>18155471</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr"/>
+      <c r="Z250" t="inlineStr"/>
+      <c r="AA250" t="inlineStr"/>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>14768449</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2023-02-06 19:37:55</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>18155472</v>
+      </c>
+      <c r="J251" t="n">
+        <v>500</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
+      <c r="Z251" t="inlineStr"/>
+      <c r="AA251" t="inlineStr"/>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>14692767</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2023-02-06 11:02:50</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>18068171</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr"/>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>14692767</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2023-02-06 11:02:50</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>18068172</v>
+      </c>
+      <c r="J253" t="n">
+        <v>500</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr"/>
+      <c r="Z253" t="inlineStr"/>
+      <c r="AA253" t="inlineStr"/>
+      <c r="AB253" t="inlineStr"/>
+      <c r="AC253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>14768441</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2023-02-05 19:36:40</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>18155460</v>
+      </c>
+      <c r="J254" t="n">
+        <v>500</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>4</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
+      <c r="Y254" t="inlineStr"/>
+      <c r="Z254" t="inlineStr"/>
+      <c r="AA254" t="inlineStr"/>
+      <c r="AB254" t="inlineStr"/>
+      <c r="AC254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>14768441</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2023-02-05 19:36:40</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>18155461</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
+      <c r="Y255" t="inlineStr"/>
+      <c r="Z255" t="inlineStr"/>
+      <c r="AA255" t="inlineStr"/>
+      <c r="AB255" t="inlineStr"/>
+      <c r="AC255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>14768441</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2023-02-05 19:36:40</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>18155462</v>
+      </c>
+      <c r="J256" t="n">
+        <v>500</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>2</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
+      <c r="Z256" t="inlineStr"/>
+      <c r="AA256" t="inlineStr"/>
+      <c r="AB256" t="inlineStr"/>
+      <c r="AC256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>14768432</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2023-02-05 19:36:09</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>18155451</v>
+      </c>
+      <c r="J257" t="n">
+        <v>500</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>4</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
+      <c r="Z257" t="inlineStr"/>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>14692765</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2023-02-05 10:59:30</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>18068167</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>14692765</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2023-02-05 10:59:30</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>18068168</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>2</v>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>14692765</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2023-02-05 10:59:30</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>18068169</v>
+      </c>
+      <c r="J260" t="n">
+        <v>500</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>14768427</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2023-02-04 19:35:14</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>18155445</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
+      <c r="Z261" t="inlineStr"/>
+      <c r="AA261" t="inlineStr"/>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>14768427</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2023-02-04 19:35:14</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>18155446</v>
+      </c>
+      <c r="J262" t="n">
+        <v>500</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>3</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>14692763</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2023-02-04 10:57:20</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>18068163</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
+      <c r="Z263" t="inlineStr"/>
+      <c r="AA263" t="inlineStr"/>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>14692763</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2023-02-04 10:57:20</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>18068164</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>14692763</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2023-02-04 10:57:20</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>18068165</v>
+      </c>
+      <c r="J265" t="n">
+        <v>500</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr"/>
+      <c r="AA265" t="inlineStr"/>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>14768424</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2023-02-03 19:33:53</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>18155440</v>
+      </c>
+      <c r="J266" t="n">
+        <v>500</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>4</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>14768424</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2023-02-03 19:33:53</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>18155441</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2888</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1455055</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>ER-ND300HK(XR)</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>14768424</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2023-02-03 19:33:53</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>18155442</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1455229</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>DWS-22AHK</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>14692761</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2023-02-03 10:55:04</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>18068160</v>
+      </c>
+      <c r="J269" t="n">
+        <v>500</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>14692761</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2023-02-03 10:55:04</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>18068161</v>
+      </c>
+      <c r="J270" t="n">
+        <v>500</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr"/>
+      <c r="Z270" t="inlineStr"/>
+      <c r="AA270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>14768417</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2023-02-01 19:33:09</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>18155431</v>
+      </c>
+      <c r="J271" t="n">
+        <v>500</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr"/>
+      <c r="Z271" t="inlineStr"/>
+      <c r="AA271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>14768417</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2023-02-01 19:33:09</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Set sale</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>18155432</v>
+      </c>
+      <c r="J272" t="n">
+        <v>500</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1455110</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>PLK-45SFIH(WT)</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ex_fung.lokman</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>14692758</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2023-02-01 10:52:25</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>134432</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>吉之島-荃灣灣景店(02)</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>18068157</v>
+      </c>
+      <c r="J273" t="n">
+        <v>500</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1455232</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>RC-18DRNH</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
+      <c r="Y273" t="inlineStr"/>
+      <c r="Z273" t="inlineStr"/>
+      <c r="AA273" t="inlineStr"/>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
